--- a/F1_Score.xlsx
+++ b/F1_Score.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f206bb72cf12a696/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f206bb72cf12a696/Documentos/GitHub/trabalho-final-PLN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="13_ncr:1_{649EEB61-3D9F-478B-AD3B-A7DC8CD4E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{819F606A-C058-4435-8944-FE06EECB3DAB}"/>
+  <xr:revisionPtr revIDLastSave="993" documentId="13_ncr:1_{649EEB61-3D9F-478B-AD3B-A7DC8CD4E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B31C39C-B938-43EC-88B0-26E942953F97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0701B873-1249-45E2-B5A5-E406BB938C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0701B873-1249-45E2-B5A5-E406BB938C2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="CountVectorizer" sheetId="1" r:id="rId1"/>
+    <sheet name="TF-IDF" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="422">
   <si>
     <t>## CountVectorizer Stemmer Unigrama</t>
   </si>
@@ -704,6 +705,603 @@
   </si>
   <si>
     <t>6,96s</t>
+  </si>
+  <si>
+    <t>TF-IDF Texto</t>
+  </si>
+  <si>
+    <t>TF-IDF Stemização</t>
+  </si>
+  <si>
+    <t>TF-IDF Lematização</t>
+  </si>
+  <si>
+    <t>TF-IDF - Lematização_Verbos</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama - Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama - Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama - Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras / Stopwords</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras / Stopwords</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama - Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras / Stopwords</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer Unigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Unigrama - Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Unigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Unigrama - Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Unigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Stemmer / Unigrama - Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma Unigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Unigrama - Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Unigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Unigrama - Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Unigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma / Unigrama - Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb Unigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Unigrama - Bigrama</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Unigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Unigrama - Bigrama / MindF = 10</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Unigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Lemma_Verb / Unigrama - Bigrama / MindF = 10 / token_pattern = Palavras com mais de 3 letras</t>
+  </si>
+  <si>
+    <t>## TF-IDF Vectorizer Texto Unigrama</t>
+  </si>
+  <si>
+    <t>1m 6s</t>
+  </si>
+  <si>
+    <t>2.57s</t>
+  </si>
+  <si>
+    <t>1.5s</t>
+  </si>
+  <si>
+    <t>1.56s</t>
+  </si>
+  <si>
+    <t>6m 9s</t>
+  </si>
+  <si>
+    <t>12.7s</t>
+  </si>
+  <si>
+    <t>7m 37s</t>
+  </si>
+  <si>
+    <t>2.71s</t>
+  </si>
+  <si>
+    <t>2.9s</t>
+  </si>
+  <si>
+    <t>6m 24s</t>
+  </si>
+  <si>
+    <t>14.7s</t>
+  </si>
+  <si>
+    <t>4.02s</t>
+  </si>
+  <si>
+    <t>4.22s</t>
+  </si>
+  <si>
+    <t>59.2s</t>
+  </si>
+  <si>
+    <t>2.1s</t>
+  </si>
+  <si>
+    <t>28.4s</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.52s</t>
+  </si>
+  <si>
+    <t>1m 11s</t>
+  </si>
+  <si>
+    <t>2.87s</t>
+  </si>
+  <si>
+    <t>31.9s</t>
+  </si>
+  <si>
+    <t>2.28s</t>
+  </si>
+  <si>
+    <t>2.2s</t>
+  </si>
+  <si>
+    <t>1m 55s</t>
+  </si>
+  <si>
+    <t>4,09s</t>
+  </si>
+  <si>
+    <t>39.2s</t>
+  </si>
+  <si>
+    <t>3.03s</t>
+  </si>
+  <si>
+    <t>3.11s</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>1.77s</t>
+  </si>
+  <si>
+    <t>28s</t>
+  </si>
+  <si>
+    <t>1.33s</t>
+  </si>
+  <si>
+    <t>1.3s</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>2.5s</t>
+  </si>
+  <si>
+    <t>27.1s</t>
+  </si>
+  <si>
+    <t>1.83s</t>
+  </si>
+  <si>
+    <t>1.78s</t>
+  </si>
+  <si>
+    <t>1m 33s</t>
+  </si>
+  <si>
+    <t>3.69s</t>
+  </si>
+  <si>
+    <t>35.2s</t>
+  </si>
+  <si>
+    <t>2.49s</t>
+  </si>
+  <si>
+    <t>44.2s</t>
+  </si>
+  <si>
+    <t>1.8s</t>
+  </si>
+  <si>
+    <t>25.1s</t>
+  </si>
+  <si>
+    <t>1.23s</t>
+  </si>
+  <si>
+    <t>1.19s</t>
+  </si>
+  <si>
+    <t>23.1s</t>
+  </si>
+  <si>
+    <t>1.85s</t>
+  </si>
+  <si>
+    <t>19.9s</t>
+  </si>
+  <si>
+    <t>1.48s</t>
+  </si>
+  <si>
+    <t>1.42s</t>
+  </si>
+  <si>
+    <t>58,4s</t>
+  </si>
+  <si>
+    <t>2.75s</t>
+  </si>
+  <si>
+    <t>27.6s</t>
+  </si>
+  <si>
+    <t>1.99s</t>
+  </si>
+  <si>
+    <t>1.91s</t>
+  </si>
+  <si>
+    <t>1m 2s</t>
+  </si>
+  <si>
+    <t>2.32s</t>
+  </si>
+  <si>
+    <t>33.3s</t>
+  </si>
+  <si>
+    <t>1.51s</t>
+  </si>
+  <si>
+    <t>1.49s</t>
+  </si>
+  <si>
+    <t>5m 29s</t>
+  </si>
+  <si>
+    <t>11.7s</t>
+  </si>
+  <si>
+    <t>6m 57s</t>
+  </si>
+  <si>
+    <t>2.62s</t>
+  </si>
+  <si>
+    <t>2.76s</t>
+  </si>
+  <si>
+    <t>5m 39s</t>
+  </si>
+  <si>
+    <t>13.8s</t>
+  </si>
+  <si>
+    <t>4m 40s</t>
+  </si>
+  <si>
+    <t>3.54s</t>
+  </si>
+  <si>
+    <t>3.79s</t>
+  </si>
+  <si>
+    <t>54,6s</t>
+  </si>
+  <si>
+    <t>27.7s</t>
+  </si>
+  <si>
+    <t>1m 12s</t>
+  </si>
+  <si>
+    <t>3.02s</t>
+  </si>
+  <si>
+    <t>32.8s</t>
+  </si>
+  <si>
+    <t>2.25s</t>
+  </si>
+  <si>
+    <t>4.13s</t>
+  </si>
+  <si>
+    <t>39.4s</t>
+  </si>
+  <si>
+    <t>2.99s</t>
+  </si>
+  <si>
+    <t>49.7s</t>
+  </si>
+  <si>
+    <t>1.66s</t>
+  </si>
+  <si>
+    <t>27.2s</t>
+  </si>
+  <si>
+    <t>1.18s</t>
+  </si>
+  <si>
+    <t>1.16s</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>2.26s</t>
+  </si>
+  <si>
+    <t>28.6s</t>
+  </si>
+  <si>
+    <t>1.69s</t>
+  </si>
+  <si>
+    <t>1.68s</t>
+  </si>
+  <si>
+    <t>1m 27s</t>
+  </si>
+  <si>
+    <t>3.3s</t>
+  </si>
+  <si>
+    <t>35.5s</t>
+  </si>
+  <si>
+    <t>2.34s</t>
+  </si>
+  <si>
+    <t>2.33s</t>
+  </si>
+  <si>
+    <t>56,7s</t>
+  </si>
+  <si>
+    <t>2.54s</t>
+  </si>
+  <si>
+    <t>30.6s</t>
+  </si>
+  <si>
+    <t>4m 53s</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>2.6s</t>
+  </si>
+  <si>
+    <t>4m 56s</t>
+  </si>
+  <si>
+    <t>13.3s</t>
+  </si>
+  <si>
+    <t>4m 13s</t>
+  </si>
+  <si>
+    <t>3.68s</t>
+  </si>
+  <si>
+    <t>3.81s</t>
+  </si>
+  <si>
+    <t>51.7s</t>
+  </si>
+  <si>
+    <t>27s</t>
+  </si>
+  <si>
+    <t>1.57s</t>
+  </si>
+  <si>
+    <t>3.12s</t>
+  </si>
+  <si>
+    <t>32.4s</t>
+  </si>
+  <si>
+    <t>2.23s</t>
+  </si>
+  <si>
+    <t>2.21s</t>
+  </si>
+  <si>
+    <t>1m 48s</t>
+  </si>
+  <si>
+    <t>4.48s</t>
+  </si>
+  <si>
+    <t>38.6s</t>
+  </si>
+  <si>
+    <t>2.93s</t>
+  </si>
+  <si>
+    <t>51.1s</t>
+  </si>
+  <si>
+    <t>1.81s</t>
+  </si>
+  <si>
+    <t>26.7s</t>
+  </si>
+  <si>
+    <t>1.22s</t>
+  </si>
+  <si>
+    <t>1.26s</t>
+  </si>
+  <si>
+    <t>2.74s</t>
+  </si>
+  <si>
+    <t>28.3s</t>
+  </si>
+  <si>
+    <t>1.82s</t>
+  </si>
+  <si>
+    <t>4.04s</t>
+  </si>
+  <si>
+    <t>2.52s</t>
+  </si>
+  <si>
+    <t>32.5s</t>
+  </si>
+  <si>
+    <t>1.59s</t>
+  </si>
+  <si>
+    <t>10.9s</t>
+  </si>
+  <si>
+    <t>6m 51s</t>
+  </si>
+  <si>
+    <t>2.67s</t>
+  </si>
+  <si>
+    <t>2.84s</t>
+  </si>
+  <si>
+    <t>15.3s</t>
+  </si>
+  <si>
+    <t>4m 36s</t>
+  </si>
+  <si>
+    <t>3.64s</t>
+  </si>
+  <si>
+    <t>3.78s</t>
+  </si>
+  <si>
+    <t>57.2s</t>
+  </si>
+  <si>
+    <t>28.8s</t>
+  </si>
+  <si>
+    <t>1m 15s</t>
+  </si>
+  <si>
+    <t>2.27s</t>
+  </si>
+  <si>
+    <t>2.91s</t>
+  </si>
+  <si>
+    <t>3.05s</t>
+  </si>
+  <si>
+    <t>51.9s</t>
+  </si>
+  <si>
+    <t>1.87s</t>
+  </si>
+  <si>
+    <t>27.4s</t>
+  </si>
+  <si>
+    <t>58.2s</t>
+  </si>
+  <si>
+    <t>1.79s</t>
+  </si>
+  <si>
+    <t>1.76s</t>
+  </si>
+  <si>
+    <t>1m 35s</t>
+  </si>
+  <si>
+    <t>3.57s</t>
+  </si>
+  <si>
+    <t>2.47s</t>
+  </si>
+  <si>
+    <t>2.48s</t>
+  </si>
+  <si>
+    <t>34.9s</t>
+  </si>
+  <si>
+    <t>5m 4s</t>
   </si>
 </sst>
 </file>
@@ -753,7 +1351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -776,21 +1374,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68B5A79-6992-47ED-9B01-D2C0017DDB01}">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP8" sqref="AP8:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,121 +1786,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AK1" s="3" t="s">
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AK1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AK2" s="3" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AO2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AS2" s="3" t="s">
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AS2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1482,10 +2126,10 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>87.79</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1509,10 +2153,10 @@
       <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>87.93</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>109</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -1527,19 +2171,19 @@
       <c r="U5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>89.46</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>88.23</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="3" t="s">
         <v>150</v>
       </c>
       <c r="AC5" s="2" t="s">
@@ -1554,19 +2198,19 @@
       <c r="AG5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="6">
         <v>90.07</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="3">
         <v>87.97</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AM5" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AO5" s="2" t="s">
@@ -1581,10 +2225,10 @@
       <c r="AS5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="4">
         <v>89.96</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AU5" s="4" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1711,10 +2355,10 @@
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>88.42</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1738,10 +2382,10 @@
       <c r="Q7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>88.19</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -1765,10 +2409,10 @@
       <c r="AC7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="3">
         <v>88.35</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="3" t="s">
         <v>157</v>
       </c>
       <c r="AG7" s="2" t="s">
@@ -1792,10 +2436,10 @@
       <c r="AO7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AP7" s="3">
         <v>88.29</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AS7" s="2" t="s">
@@ -1857,10 +2501,10 @@
       <c r="U8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>88.04</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Y8" s="2" t="s">
@@ -1884,10 +2528,10 @@
       <c r="AG8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="2">
         <v>88.18</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AI8" s="2" t="s">
         <v>163</v>
       </c>
       <c r="AK8" s="2" t="s">
@@ -1902,10 +2546,10 @@
       <c r="AO8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AP8" s="2">
         <v>88.25</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>194</v>
       </c>
       <c r="AS8" s="2" t="s">
@@ -1919,66 +2563,66 @@
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="U11" s="3" t="s">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="U11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="Y11" s="3" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="Y11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AC11" s="3" t="s">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AC11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AG11" s="3" t="s">
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AG11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AK11" s="3" t="s">
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AK11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AO11" s="3" t="s">
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AO11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AS11" s="3" t="s">
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AS11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2204,10 +2848,10 @@
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>87.88</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2222,19 +2866,19 @@
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>89.22</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>88.05</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>123</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -2249,46 +2893,46 @@
       <c r="U14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>88.91</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>87.54</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="3" t="s">
         <v>165</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="3">
         <v>87.82</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="3" t="s">
         <v>222</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="5">
         <v>89.21</v>
       </c>
-      <c r="AI14" s="7" t="s">
+      <c r="AI14" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL14" s="3">
         <v>87.61</v>
       </c>
-      <c r="AM14" s="4" t="s">
+      <c r="AM14" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AO14" s="2" t="s">
@@ -2303,10 +2947,10 @@
       <c r="AS14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="5">
         <v>88.96</v>
       </c>
-      <c r="AU14" s="6" t="s">
+      <c r="AU14" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2433,10 +3077,10 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>87.86</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2514,10 +3158,10 @@
       <c r="AO16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AP16" s="3">
         <v>87.79</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AQ16" s="3" t="s">
         <v>205</v>
       </c>
       <c r="AS16" s="2" t="s">
@@ -2570,10 +3214,10 @@
       <c r="Q17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>87.34</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="U17" s="2" t="s">
@@ -2641,66 +3285,66 @@
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="Q20" s="3" t="s">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="U20" s="3" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="U20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="Y20" s="3" t="s">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="Y20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AC20" s="3" t="s">
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AC20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AG20" s="3" t="s">
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AG20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AK20" s="3" t="s">
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AK20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AO20" s="3" t="s">
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AO20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AS20" s="3" t="s">
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AS20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2926,10 +3570,10 @@
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>87.06</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2944,19 +3588,19 @@
       <c r="I23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>89.04</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>87.67</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="4" t="s">
         <v>135</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -2980,10 +3624,10 @@
       <c r="Y23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="3">
         <v>87.68</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AA23" s="3" t="s">
         <v>176</v>
       </c>
       <c r="AC23" s="2" t="s">
@@ -2998,19 +3642,19 @@
       <c r="AG23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AH23" s="4">
         <v>88.88</v>
       </c>
-      <c r="AI23" s="5" t="s">
+      <c r="AI23" s="4" t="s">
         <v>183</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AL23" s="3">
         <v>87.76</v>
       </c>
-      <c r="AM23" s="4" t="s">
+      <c r="AM23" s="3" t="s">
         <v>163</v>
       </c>
       <c r="AO23" s="2" t="s">
@@ -3025,10 +3669,10 @@
       <c r="AS23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AT23" s="4">
         <v>88.92</v>
       </c>
-      <c r="AU23" s="5" t="s">
+      <c r="AU23" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3155,10 +3799,10 @@
       <c r="E25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>87.55</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -3182,19 +3826,19 @@
       <c r="Q25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>86.95</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="3" t="s">
         <v>141</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <v>87.46</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" s="3" t="s">
         <v>145</v>
       </c>
       <c r="Y25" s="2" t="s">
@@ -3209,10 +3853,10 @@
       <c r="AC25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25" s="3">
         <v>87.72</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" s="3" t="s">
         <v>105</v>
       </c>
       <c r="AG25" s="2" t="s">
@@ -3236,10 +3880,10 @@
       <c r="AO25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP25" s="3">
         <v>87.7</v>
       </c>
-      <c r="AQ25" s="4" t="s">
+      <c r="AQ25" s="3" t="s">
         <v>218</v>
       </c>
       <c r="AS25" s="2" t="s">
@@ -3301,10 +3945,10 @@
       <c r="U26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <v>87.47</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" s="3" t="s">
         <v>145</v>
       </c>
       <c r="Y26" s="2" t="s">
@@ -3363,21 +4007,21 @@
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3450,10 +4094,10 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>86.21</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3468,10 +4112,10 @@
       <c r="I32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>87.77</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3546,10 +4190,10 @@
       <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>84.63</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -3614,148 +4258,2817 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D887F0-5934-49C6-AD1F-75E1EACE7281}">
-  <dimension ref="A1:A35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB06D2-B67E-4EA7-A408-E26F46B04EB4}">
+  <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AK1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="Y2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AG2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AK2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AO2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AS2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>67.28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>69.98</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69.02</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2">
+        <v>66.39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="2">
+        <v>68.25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>70.959999999999994</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>69.45</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>81.69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>82.26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>81.16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>81.36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2">
+        <v>81.78</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2">
+        <v>80.59</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>82.01</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>81.97</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>81.13</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>80.84</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>83.78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>82.95</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>84.63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>82.74</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="2">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="2">
+        <v>84.02</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>83.89</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>82.58</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>84.13</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>83.68</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>82.39</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>84.33</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>85.62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2">
+        <v>83.85</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2">
+        <v>84.43</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="2">
+        <v>82.55</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2">
+        <v>82.67</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>84.98</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>81.97</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>84.86</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>82.61</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>86.06</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3">
+        <v>88.13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="3">
+        <v>85.83</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="5">
+        <v>88.1</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="3">
+        <v>88.04</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>85.51</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>88.2</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>88.18</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>85.85</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>88.25</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>88.22</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="U11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="Y11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AC11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AG11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AK11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AO11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AS11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>70.38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2">
+        <v>70.64</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2">
+        <v>69.09</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="2">
+        <v>67.63</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="2">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>70.44</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>67.75</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>70.38</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>71.03</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>82.33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>82.97</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2">
+        <v>82.44</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2">
+        <v>81.78</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="2">
+        <v>82.76</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="2">
+        <v>81.89</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>82.48</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>82.9</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>82.83</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>82.46</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>83.17</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>82.56</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <v>83.14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
+        <v>81.94</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2">
+        <v>84.73</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2">
+        <v>83</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="2">
+        <v>81.63</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="2">
+        <v>84.36</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>83.75</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>82.37</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>85.49</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>84.58</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>82.15</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>82.54</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>85.7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2">
+        <v>86.87</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2">
+        <v>85.82</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="2">
+        <v>85.13</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="2">
+        <v>86.26</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>85.34</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>86.86</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>86.58</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>85.21</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>86.77</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>86.54</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>85.63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>87.25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="3">
+        <v>85.51</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="4">
+        <v>87.33</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="3">
+        <v>87.31</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>85.24</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>87.21</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>87.59</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>85.49</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>87.24</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>87.51</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="U20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="Y20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AC20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AG20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AK20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AO20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AS20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>70.41</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2">
+        <v>71.69</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="2">
+        <v>68.709999999999994</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="2">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>69.95</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>70.28</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>82.81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2">
+        <v>83.18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2">
+        <v>83.79</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2">
+        <v>82.2</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2">
+        <v>82.08</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="2">
+        <v>82.96</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>82.87</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>83.03</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>83.72</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>82.85</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>82.91</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>83.83</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2">
+        <v>83.97</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2">
+        <v>82.59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2">
+        <v>84.82</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2">
+        <v>82.71</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="2">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="2">
+        <v>83.71</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>83.89</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>83.17</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>85.24</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>83.88</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>84.88</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <v>85.74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2">
+        <v>86.96</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2">
+        <v>87.05</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="2">
+        <v>84.88</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="2">
+        <v>85.87</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="2">
+        <v>86.65</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>85.38</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>87.01</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>86.92</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>85.51</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>86.98</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>87.08</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>85.41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3">
+        <v>87.31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="4">
+        <v>87.55</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="3">
+        <v>85.36</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="3">
+        <v>86.76</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="4">
+        <v>87.47</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>85.19</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>87.36</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>85.48</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>87.09</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="AU26" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>70.41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2">
+        <v>71.55</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>83.58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2">
+        <v>80.97</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="2">
+        <v>83.9</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>84.23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="2">
+        <v>79.42</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="2">
+        <v>84.82</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>86.14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2">
+        <v>84.54</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="2">
+        <v>87.08</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>84.89</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="3">
+        <v>84.63</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="4">
+        <v>86.9</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AO20:AQ20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AO2:AQ2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D887F0-5934-49C6-AD1F-75E1EACE7281}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
         <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
